--- a/data/data_split_4.xlsx
+++ b/data/data_split_4.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\IT4930-KHDL\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E79FC9A-A98B-4F83-827F-1A88B4967E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1089">
   <si>
     <t>title</t>
   </si>
@@ -3505,12 +3511,27 @@
 _x000D_
 Mong muốn lắm Tiki Thay Dổi Tốt Hơn để người Việt được sử dụng những dịch vụ Tốt từ những cty VN. Nhưng sao khó quá!</t>
   </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3535,7 +3556,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3558,13 +3579,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3573,13 +3606,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3617,7 +3658,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3651,6 +3692,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3685,9 +3727,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3860,14 +3903,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="A1:I1001"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3877,8 +3922,23 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>7500</v>
       </c>
@@ -3892,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>7501</v>
       </c>
@@ -3906,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7502</v>
       </c>
@@ -3920,7 +3980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>7503</v>
       </c>
@@ -3934,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7504</v>
       </c>
@@ -3948,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7505</v>
       </c>
@@ -3962,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7506</v>
       </c>
@@ -3976,7 +4036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7507</v>
       </c>
@@ -3990,7 +4050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7508</v>
       </c>
@@ -4004,7 +4064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7509</v>
       </c>
@@ -4018,7 +4078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>7510</v>
       </c>
@@ -4032,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>7511</v>
       </c>
@@ -4046,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7512</v>
       </c>
@@ -4060,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>7513</v>
       </c>
@@ -4074,7 +4134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>7514</v>
       </c>
@@ -4088,7 +4148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>7515</v>
       </c>
@@ -4102,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>7516</v>
       </c>
@@ -4116,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>7517</v>
       </c>
@@ -4130,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>7518</v>
       </c>
@@ -4144,7 +4204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>7519</v>
       </c>
@@ -4158,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>7520</v>
       </c>
@@ -4172,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>7521</v>
       </c>
@@ -4186,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>7522</v>
       </c>
@@ -4200,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>7523</v>
       </c>
@@ -4214,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>7524</v>
       </c>
@@ -4228,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>7525</v>
       </c>
@@ -4242,7 +4302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>7526</v>
       </c>
@@ -4256,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>7527</v>
       </c>
@@ -4270,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>7528</v>
       </c>
@@ -4284,7 +4344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>7529</v>
       </c>
@@ -4298,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>7530</v>
       </c>
@@ -4312,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>7531</v>
       </c>
@@ -4326,7 +4386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>7532</v>
       </c>
@@ -4340,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>7533</v>
       </c>
@@ -4354,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>7534</v>
       </c>
@@ -4368,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>7535</v>
       </c>
@@ -4382,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>7536</v>
       </c>
@@ -4396,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>7537</v>
       </c>
@@ -4410,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>7538</v>
       </c>
@@ -4424,7 +4484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>7539</v>
       </c>
@@ -4438,7 +4498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>7540</v>
       </c>
@@ -4452,7 +4512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>7541</v>
       </c>
@@ -4466,7 +4526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>7542</v>
       </c>
@@ -4480,7 +4540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>7543</v>
       </c>
@@ -4494,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>7544</v>
       </c>
@@ -4508,7 +4568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>7545</v>
       </c>
@@ -4522,7 +4582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>7546</v>
       </c>
@@ -4536,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>7547</v>
       </c>
@@ -4550,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>7548</v>
       </c>
@@ -4564,7 +4624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>7549</v>
       </c>
@@ -4578,7 +4638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>7550</v>
       </c>
@@ -4592,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>7551</v>
       </c>
@@ -4606,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>7552</v>
       </c>
@@ -4620,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>7553</v>
       </c>
@@ -4634,7 +4694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>7554</v>
       </c>
@@ -4648,7 +4708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>7555</v>
       </c>
@@ -4662,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>7556</v>
       </c>
@@ -4676,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>7557</v>
       </c>
@@ -4690,7 +4750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>7558</v>
       </c>
@@ -4704,7 +4764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>7559</v>
       </c>
@@ -4718,7 +4778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>7560</v>
       </c>
@@ -4732,7 +4792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>7561</v>
       </c>
@@ -4746,7 +4806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>7562</v>
       </c>
@@ -4760,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>7563</v>
       </c>
@@ -4774,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>7564</v>
       </c>
@@ -4788,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>7565</v>
       </c>
@@ -4802,7 +4862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>7566</v>
       </c>
@@ -4816,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>7567</v>
       </c>
@@ -4830,7 +4890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>7568</v>
       </c>
@@ -4844,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>7569</v>
       </c>
@@ -4858,7 +4918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>7570</v>
       </c>
@@ -4872,7 +4932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>7571</v>
       </c>
@@ -4886,7 +4946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>7572</v>
       </c>
@@ -4900,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>7573</v>
       </c>
@@ -4914,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>7574</v>
       </c>
@@ -4928,7 +4988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>7575</v>
       </c>
@@ -4942,7 +5002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>7576</v>
       </c>
@@ -4956,7 +5016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>7577</v>
       </c>
@@ -4970,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>7578</v>
       </c>
@@ -4984,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>7579</v>
       </c>
@@ -4998,7 +5058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>7580</v>
       </c>
@@ -5012,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>7581</v>
       </c>
@@ -5026,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>7582</v>
       </c>
@@ -5040,7 +5100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>7583</v>
       </c>
@@ -5054,7 +5114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>7584</v>
       </c>
@@ -5068,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>7585</v>
       </c>
@@ -5082,7 +5142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>7586</v>
       </c>
@@ -5096,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>7587</v>
       </c>
@@ -5110,7 +5170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>7588</v>
       </c>
@@ -5124,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>7589</v>
       </c>
@@ -5138,7 +5198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>7590</v>
       </c>
@@ -5152,7 +5212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>7591</v>
       </c>
@@ -5166,7 +5226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>7592</v>
       </c>
@@ -5180,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>7593</v>
       </c>
@@ -5194,7 +5254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>7594</v>
       </c>
@@ -5208,7 +5268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>7595</v>
       </c>
@@ -5222,7 +5282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>7596</v>
       </c>
@@ -5236,7 +5296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>7597</v>
       </c>
@@ -5250,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>7598</v>
       </c>
@@ -5264,7 +5324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>7599</v>
       </c>
@@ -5278,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>7600</v>
       </c>
@@ -5292,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>7601</v>
       </c>
@@ -5306,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>7602</v>
       </c>
@@ -5320,7 +5380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>7603</v>
       </c>
@@ -5334,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>7604</v>
       </c>
@@ -5348,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>7605</v>
       </c>
@@ -5362,7 +5422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>7606</v>
       </c>
@@ -5376,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>7607</v>
       </c>
@@ -5390,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>7608</v>
       </c>
@@ -5404,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>7609</v>
       </c>
@@ -5418,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>7610</v>
       </c>
@@ -5432,7 +5492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>7611</v>
       </c>
@@ -5446,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>7612</v>
       </c>
@@ -5460,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>7613</v>
       </c>
@@ -5474,7 +5534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>7614</v>
       </c>
@@ -5488,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>7615</v>
       </c>
@@ -5502,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>7616</v>
       </c>
@@ -5516,7 +5576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>7617</v>
       </c>
@@ -5530,7 +5590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>7618</v>
       </c>
@@ -5544,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>7619</v>
       </c>
@@ -5558,7 +5618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>7620</v>
       </c>
@@ -5572,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>7621</v>
       </c>
@@ -5586,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>7622</v>
       </c>
@@ -5600,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>7623</v>
       </c>
@@ -5614,7 +5674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>7624</v>
       </c>
@@ -5628,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>7625</v>
       </c>
@@ -5642,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>7626</v>
       </c>
@@ -5656,7 +5716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>7627</v>
       </c>
@@ -5670,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>7628</v>
       </c>
@@ -5684,7 +5744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>7629</v>
       </c>
@@ -5698,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>7630</v>
       </c>
@@ -5712,7 +5772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>7631</v>
       </c>
@@ -5726,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>7632</v>
       </c>
@@ -5740,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>7633</v>
       </c>
@@ -5754,7 +5814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>7634</v>
       </c>
@@ -5768,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>7635</v>
       </c>
@@ -5782,7 +5842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>7636</v>
       </c>
@@ -5796,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>7637</v>
       </c>
@@ -5810,7 +5870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>7638</v>
       </c>
@@ -5824,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>7639</v>
       </c>
@@ -5838,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>7640</v>
       </c>
@@ -5852,7 +5912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>7641</v>
       </c>
@@ -5866,7 +5926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>7642</v>
       </c>
@@ -5880,7 +5940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>7643</v>
       </c>
@@ -5894,7 +5954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>7644</v>
       </c>
@@ -5908,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>7645</v>
       </c>
@@ -5922,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>7646</v>
       </c>
@@ -5936,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>7647</v>
       </c>
@@ -5950,7 +6010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>7648</v>
       </c>
@@ -5964,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>7649</v>
       </c>
@@ -5978,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>7650</v>
       </c>
@@ -5992,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>7651</v>
       </c>
@@ -6006,7 +6066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>7652</v>
       </c>
@@ -6020,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>7653</v>
       </c>
@@ -6034,7 +6094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>7654</v>
       </c>
@@ -6048,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>7655</v>
       </c>
@@ -6062,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>7656</v>
       </c>
@@ -6076,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>7657</v>
       </c>
@@ -6090,7 +6150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>7658</v>
       </c>
@@ -6104,7 +6164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>7659</v>
       </c>
@@ -6118,7 +6178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>7660</v>
       </c>
@@ -6132,7 +6192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>7661</v>
       </c>
@@ -6146,7 +6206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>7662</v>
       </c>
@@ -6160,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>7663</v>
       </c>
@@ -6174,7 +6234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>7664</v>
       </c>
@@ -6188,7 +6248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>7665</v>
       </c>
@@ -6202,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>7666</v>
       </c>
@@ -6216,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>7667</v>
       </c>
@@ -6230,7 +6290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>7668</v>
       </c>
@@ -6244,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>7669</v>
       </c>
@@ -6258,7 +6318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>7670</v>
       </c>
@@ -6272,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>7671</v>
       </c>
@@ -6286,7 +6346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>7672</v>
       </c>
@@ -6300,7 +6360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>7673</v>
       </c>
@@ -6314,7 +6374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>7674</v>
       </c>
@@ -6328,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>7675</v>
       </c>
@@ -6342,7 +6402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>7676</v>
       </c>
@@ -6356,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>7677</v>
       </c>
@@ -6370,7 +6430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>7678</v>
       </c>
@@ -6384,7 +6444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>7679</v>
       </c>
@@ -6398,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>7680</v>
       </c>
@@ -6412,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>7681</v>
       </c>
@@ -6426,7 +6486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>7682</v>
       </c>
@@ -6440,7 +6500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>7683</v>
       </c>
@@ -6454,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>7684</v>
       </c>
@@ -6468,7 +6528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>7685</v>
       </c>
@@ -6482,7 +6542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>7686</v>
       </c>
@@ -6496,7 +6556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>7687</v>
       </c>
@@ -6510,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>7688</v>
       </c>
@@ -6524,7 +6584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>7689</v>
       </c>
@@ -6538,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>7690</v>
       </c>
@@ -6552,7 +6612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>7691</v>
       </c>
@@ -6566,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>7692</v>
       </c>
@@ -6580,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>7693</v>
       </c>
@@ -6594,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>7694</v>
       </c>
@@ -6608,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>7695</v>
       </c>
@@ -6622,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>7696</v>
       </c>
@@ -6636,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>7697</v>
       </c>
@@ -6650,7 +6710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>7698</v>
       </c>
@@ -6664,7 +6724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>7699</v>
       </c>
@@ -6678,7 +6738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>7700</v>
       </c>
@@ -6692,7 +6752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>7701</v>
       </c>
@@ -6706,7 +6766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>7702</v>
       </c>
@@ -6720,7 +6780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>7703</v>
       </c>
@@ -6734,7 +6794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>7704</v>
       </c>
@@ -6748,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>7705</v>
       </c>
@@ -6762,7 +6822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>7706</v>
       </c>
@@ -6776,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>7707</v>
       </c>
@@ -6790,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>7708</v>
       </c>
@@ -6804,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>7709</v>
       </c>
@@ -6818,7 +6878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>7710</v>
       </c>
@@ -6832,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>7711</v>
       </c>
@@ -6846,7 +6906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>7712</v>
       </c>
@@ -6860,7 +6920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>7713</v>
       </c>
@@ -6874,7 +6934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>7714</v>
       </c>
@@ -6888,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>7715</v>
       </c>
@@ -6902,7 +6962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>7716</v>
       </c>
@@ -6916,7 +6976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>7717</v>
       </c>
@@ -6930,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>7718</v>
       </c>
@@ -6944,7 +7004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>7719</v>
       </c>
@@ -6958,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>7720</v>
       </c>
@@ -6972,7 +7032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>7721</v>
       </c>
@@ -6986,7 +7046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>7722</v>
       </c>
@@ -7000,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>7723</v>
       </c>
@@ -7014,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>7724</v>
       </c>
@@ -7028,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>7725</v>
       </c>
@@ -7042,7 +7102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>7726</v>
       </c>
@@ -7056,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>7727</v>
       </c>
@@ -7070,7 +7130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>7728</v>
       </c>
@@ -7084,7 +7144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>7729</v>
       </c>
@@ -7098,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>7730</v>
       </c>
@@ -7112,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>7731</v>
       </c>
@@ -7126,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>7732</v>
       </c>
@@ -7140,7 +7200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>7733</v>
       </c>
@@ -7154,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>7734</v>
       </c>
@@ -7168,7 +7228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>7735</v>
       </c>
@@ -7182,7 +7242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>7736</v>
       </c>
@@ -7196,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>7737</v>
       </c>
@@ -7210,7 +7270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>7738</v>
       </c>
@@ -7224,7 +7284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>7739</v>
       </c>
@@ -7238,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>7740</v>
       </c>
@@ -7252,7 +7312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>7741</v>
       </c>
@@ -7266,7 +7326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>7742</v>
       </c>
@@ -7280,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>7743</v>
       </c>
@@ -7294,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>7744</v>
       </c>
@@ -7308,7 +7368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>7745</v>
       </c>
@@ -7322,7 +7382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>7746</v>
       </c>
@@ -7336,7 +7396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>7747</v>
       </c>
@@ -7350,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>7748</v>
       </c>
@@ -7364,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>7749</v>
       </c>
@@ -7378,7 +7438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>7750</v>
       </c>
@@ -7392,7 +7452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>7751</v>
       </c>
@@ -7406,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>7752</v>
       </c>
@@ -7420,7 +7480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>7753</v>
       </c>
@@ -7434,7 +7494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>7754</v>
       </c>
@@ -7448,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>7755</v>
       </c>
@@ -7462,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>7756</v>
       </c>
@@ -7476,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>7757</v>
       </c>
@@ -7490,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>7758</v>
       </c>
@@ -7504,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>7759</v>
       </c>
@@ -7518,7 +7578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>7760</v>
       </c>
@@ -7532,7 +7592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>7761</v>
       </c>
@@ -7546,7 +7606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>7762</v>
       </c>
@@ -7560,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>7763</v>
       </c>
@@ -7574,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>7764</v>
       </c>
@@ -7588,7 +7648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>7765</v>
       </c>
@@ -7602,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>7766</v>
       </c>
@@ -7616,7 +7676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>7767</v>
       </c>
@@ -7630,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>7768</v>
       </c>
@@ -7644,7 +7704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>7769</v>
       </c>
@@ -7658,7 +7718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>7770</v>
       </c>
@@ -7672,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>7771</v>
       </c>
@@ -7686,7 +7746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>7772</v>
       </c>
@@ -7700,7 +7760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>7773</v>
       </c>
@@ -7714,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>7774</v>
       </c>
@@ -7728,7 +7788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>7775</v>
       </c>
@@ -7742,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>7776</v>
       </c>
@@ -7756,7 +7816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>7777</v>
       </c>
@@ -7770,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>7778</v>
       </c>
@@ -7784,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>7779</v>
       </c>
@@ -7798,7 +7858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>7780</v>
       </c>
@@ -7812,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>7781</v>
       </c>
@@ -7826,7 +7886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>7782</v>
       </c>
@@ -7840,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>7783</v>
       </c>
@@ -7854,7 +7914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>7784</v>
       </c>
@@ -7868,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>7785</v>
       </c>
@@ -7882,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>7786</v>
       </c>
@@ -7896,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>7787</v>
       </c>
@@ -7910,7 +7970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>7788</v>
       </c>
@@ -7924,7 +7984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>7789</v>
       </c>
@@ -7938,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>7790</v>
       </c>
@@ -7952,7 +8012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>7791</v>
       </c>
@@ -7966,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>7792</v>
       </c>
@@ -7980,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>7793</v>
       </c>
@@ -7994,7 +8054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>7794</v>
       </c>
@@ -8008,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>7795</v>
       </c>
@@ -8022,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>7796</v>
       </c>
@@ -8036,7 +8096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>7797</v>
       </c>
@@ -8050,7 +8110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>7798</v>
       </c>
@@ -8064,7 +8124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>7799</v>
       </c>
@@ -8078,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>7800</v>
       </c>
@@ -8092,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>7801</v>
       </c>
@@ -8106,7 +8166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>7802</v>
       </c>
@@ -8120,7 +8180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>7803</v>
       </c>
@@ -8134,7 +8194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>7804</v>
       </c>
@@ -8148,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>7805</v>
       </c>
@@ -8162,7 +8222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>7806</v>
       </c>
@@ -8176,7 +8236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>7807</v>
       </c>
@@ -8190,7 +8250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>7808</v>
       </c>
@@ -8204,7 +8264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>7809</v>
       </c>
@@ -8218,7 +8278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>7810</v>
       </c>
@@ -8232,7 +8292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>7811</v>
       </c>
@@ -8246,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>7812</v>
       </c>
@@ -8260,7 +8320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>7813</v>
       </c>
@@ -8274,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>7814</v>
       </c>
@@ -8288,7 +8348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>7815</v>
       </c>
@@ -8302,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>7816</v>
       </c>
@@ -8316,7 +8376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>7817</v>
       </c>
@@ -8330,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>7818</v>
       </c>
@@ -8344,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>7819</v>
       </c>
@@ -8358,7 +8418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>7820</v>
       </c>
@@ -8372,7 +8432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>7821</v>
       </c>
@@ -8386,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>7822</v>
       </c>
@@ -8400,7 +8460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>7823</v>
       </c>
@@ -8414,7 +8474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>7824</v>
       </c>
@@ -8428,7 +8488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>7825</v>
       </c>
@@ -8442,7 +8502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>7826</v>
       </c>
@@ -8456,7 +8516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>7827</v>
       </c>
@@ -8470,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>7828</v>
       </c>
@@ -8484,7 +8544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>7829</v>
       </c>
@@ -8498,7 +8558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>7830</v>
       </c>
@@ -8512,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>7831</v>
       </c>
@@ -8526,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>7832</v>
       </c>
@@ -8540,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>7833</v>
       </c>
@@ -8554,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>7834</v>
       </c>
@@ -8568,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>7835</v>
       </c>
@@ -8582,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>7836</v>
       </c>
@@ -8596,7 +8656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>7837</v>
       </c>
@@ -8610,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>7838</v>
       </c>
@@ -8624,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>7839</v>
       </c>
@@ -8638,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>7840</v>
       </c>
@@ -8652,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>7841</v>
       </c>
@@ -8666,7 +8726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>7842</v>
       </c>
@@ -8680,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>7843</v>
       </c>
@@ -8694,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>7844</v>
       </c>
@@ -8708,7 +8768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>7845</v>
       </c>
@@ -8722,7 +8782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>7846</v>
       </c>
@@ -8736,7 +8796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>7847</v>
       </c>
@@ -8750,7 +8810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>7848</v>
       </c>
@@ -8764,7 +8824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>7849</v>
       </c>
@@ -8778,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>7850</v>
       </c>
@@ -8792,7 +8852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>7851</v>
       </c>
@@ -8806,7 +8866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>7852</v>
       </c>
@@ -8820,7 +8880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>7853</v>
       </c>
@@ -8834,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>7854</v>
       </c>
@@ -8848,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>7855</v>
       </c>
@@ -8862,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>7856</v>
       </c>
@@ -8876,7 +8936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>7857</v>
       </c>
@@ -8890,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>7858</v>
       </c>
@@ -8904,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>7859</v>
       </c>
@@ -8918,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>7860</v>
       </c>
@@ -8932,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>7861</v>
       </c>
@@ -8946,7 +9006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>7862</v>
       </c>
@@ -8960,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>7863</v>
       </c>
@@ -8974,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>7864</v>
       </c>
@@ -8988,7 +9048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>7865</v>
       </c>
@@ -9002,7 +9062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>7866</v>
       </c>
@@ -9016,7 +9076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>7867</v>
       </c>
@@ -9030,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>7868</v>
       </c>
@@ -9044,7 +9104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>7869</v>
       </c>
@@ -9058,7 +9118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>7870</v>
       </c>
@@ -9072,7 +9132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>7871</v>
       </c>
@@ -9086,7 +9146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>7872</v>
       </c>
@@ -9100,7 +9160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>7873</v>
       </c>
@@ -9114,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>7874</v>
       </c>
@@ -9128,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>7875</v>
       </c>
@@ -9142,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>7876</v>
       </c>
@@ -9156,7 +9216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>7877</v>
       </c>
@@ -9170,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>7878</v>
       </c>
@@ -9184,7 +9244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>7879</v>
       </c>
@@ -9198,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>7880</v>
       </c>
@@ -9212,7 +9272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>7881</v>
       </c>
@@ -9226,7 +9286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>7882</v>
       </c>
@@ -9240,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>7883</v>
       </c>
@@ -9254,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>7884</v>
       </c>
@@ -9268,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>7885</v>
       </c>
@@ -9282,7 +9342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>7886</v>
       </c>
@@ -9296,7 +9356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>7887</v>
       </c>
@@ -9310,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>7888</v>
       </c>
@@ -9324,7 +9384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>7889</v>
       </c>
@@ -9338,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>7890</v>
       </c>
@@ -9352,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>7891</v>
       </c>
@@ -9366,7 +9426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>7892</v>
       </c>
@@ -9380,7 +9440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>7893</v>
       </c>
@@ -9394,7 +9454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>7894</v>
       </c>
@@ -9408,7 +9468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>7895</v>
       </c>
@@ -9422,7 +9482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>7896</v>
       </c>
@@ -9436,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>7897</v>
       </c>
@@ -9450,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>7898</v>
       </c>
@@ -9464,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>7899</v>
       </c>
@@ -9478,7 +9538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>7900</v>
       </c>
@@ -9492,7 +9552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>7901</v>
       </c>
@@ -9506,7 +9566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>7902</v>
       </c>
@@ -9520,7 +9580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>7903</v>
       </c>
@@ -9534,7 +9594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>7904</v>
       </c>
@@ -9548,7 +9608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>7905</v>
       </c>
@@ -9562,7 +9622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>7906</v>
       </c>
@@ -9576,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>7907</v>
       </c>
@@ -9590,7 +9650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>7908</v>
       </c>
@@ -9604,7 +9664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>7909</v>
       </c>
@@ -9618,7 +9678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>7910</v>
       </c>
@@ -9632,7 +9692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>7911</v>
       </c>
@@ -9646,7 +9706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>7912</v>
       </c>
@@ -9660,7 +9720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>7913</v>
       </c>
@@ -9674,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>7914</v>
       </c>
@@ -9688,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>7915</v>
       </c>
@@ -9702,7 +9762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>7916</v>
       </c>
@@ -9716,7 +9776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>7917</v>
       </c>
@@ -9730,7 +9790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>7918</v>
       </c>
@@ -9744,7 +9804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>7919</v>
       </c>
@@ -9758,7 +9818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>7920</v>
       </c>
@@ -9772,7 +9832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>7921</v>
       </c>
@@ -9786,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>7922</v>
       </c>
@@ -9800,7 +9860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>7923</v>
       </c>
@@ -9814,7 +9874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>7924</v>
       </c>
@@ -9828,7 +9888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>7925</v>
       </c>
@@ -9842,7 +9902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>7926</v>
       </c>
@@ -9856,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>7927</v>
       </c>
@@ -9870,7 +9930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>7928</v>
       </c>
@@ -9884,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>7929</v>
       </c>
@@ -9898,7 +9958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>7930</v>
       </c>
@@ -9912,7 +9972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>7931</v>
       </c>
@@ -9926,7 +9986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>7932</v>
       </c>
@@ -9940,7 +10000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>7933</v>
       </c>
@@ -9954,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>7934</v>
       </c>
@@ -9968,7 +10028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>7935</v>
       </c>
@@ -9982,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>7936</v>
       </c>
@@ -9996,7 +10056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>7937</v>
       </c>
@@ -10010,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>7938</v>
       </c>
@@ -10024,7 +10084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>7939</v>
       </c>
@@ -10038,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>7940</v>
       </c>
@@ -10052,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>7941</v>
       </c>
@@ -10066,7 +10126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>7942</v>
       </c>
@@ -10080,7 +10140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>7943</v>
       </c>
@@ -10094,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>7944</v>
       </c>
@@ -10108,7 +10168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>7945</v>
       </c>
@@ -10122,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>7946</v>
       </c>
@@ -10136,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>7947</v>
       </c>
@@ -10150,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>7948</v>
       </c>
@@ -10164,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>7949</v>
       </c>
@@ -10178,7 +10238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>7950</v>
       </c>
@@ -10192,7 +10252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>7951</v>
       </c>
@@ -10206,7 +10266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>7952</v>
       </c>
@@ -10220,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>7953</v>
       </c>
@@ -10234,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>7954</v>
       </c>
@@ -10248,7 +10308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>7955</v>
       </c>
@@ -10262,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>7956</v>
       </c>
@@ -10276,7 +10336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>7957</v>
       </c>
@@ -10290,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>7958</v>
       </c>
@@ -10304,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>7959</v>
       </c>
@@ -10318,7 +10378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>7960</v>
       </c>
@@ -10332,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>7961</v>
       </c>
@@ -10346,7 +10406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>7962</v>
       </c>
@@ -10360,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>7963</v>
       </c>
@@ -10374,7 +10434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>7964</v>
       </c>
@@ -10388,7 +10448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>7965</v>
       </c>
@@ -10402,7 +10462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>7966</v>
       </c>
@@ -10416,7 +10476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>7967</v>
       </c>
@@ -10430,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>7968</v>
       </c>
@@ -10444,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>7969</v>
       </c>
@@ -10458,7 +10518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>7970</v>
       </c>
@@ -10472,7 +10532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>7971</v>
       </c>
@@ -10486,7 +10546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>7972</v>
       </c>
@@ -10500,7 +10560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>7973</v>
       </c>
@@ -10514,7 +10574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>7974</v>
       </c>
@@ -10528,7 +10588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>7975</v>
       </c>
@@ -10542,7 +10602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>7976</v>
       </c>
@@ -10556,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>7977</v>
       </c>
@@ -10570,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>7978</v>
       </c>
@@ -10584,7 +10644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>7979</v>
       </c>
@@ -10598,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>7980</v>
       </c>
@@ -10612,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>7981</v>
       </c>
@@ -10626,7 +10686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>7982</v>
       </c>
@@ -10640,7 +10700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>7983</v>
       </c>
@@ -10654,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>7984</v>
       </c>
@@ -10668,7 +10728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>7985</v>
       </c>
@@ -10682,7 +10742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>7986</v>
       </c>
@@ -10696,7 +10756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>7987</v>
       </c>
@@ -10710,7 +10770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>7988</v>
       </c>
@@ -10724,7 +10784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>7989</v>
       </c>
@@ -10738,7 +10798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>7990</v>
       </c>
@@ -10752,7 +10812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>7991</v>
       </c>
@@ -10766,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>7992</v>
       </c>
@@ -10780,7 +10840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>7993</v>
       </c>
@@ -10794,7 +10854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>7994</v>
       </c>
@@ -10808,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>7995</v>
       </c>
@@ -10822,7 +10882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>7996</v>
       </c>
@@ -10836,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>7997</v>
       </c>
@@ -10850,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>7998</v>
       </c>
@@ -10864,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>7999</v>
       </c>
@@ -10878,7 +10938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>8000</v>
       </c>
@@ -10892,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>8001</v>
       </c>
@@ -10906,7 +10966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>8002</v>
       </c>
@@ -10920,7 +10980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>8003</v>
       </c>
@@ -10934,7 +10994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>8004</v>
       </c>
@@ -10948,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>8005</v>
       </c>
@@ -10962,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>8006</v>
       </c>
@@ -10976,7 +11036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>8007</v>
       </c>
@@ -10990,7 +11050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>8008</v>
       </c>
@@ -11004,7 +11064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>8009</v>
       </c>
@@ -11018,7 +11078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>8010</v>
       </c>
@@ -11032,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>8011</v>
       </c>
@@ -11046,7 +11106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>8012</v>
       </c>
@@ -11060,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>8013</v>
       </c>
@@ -11074,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>8014</v>
       </c>
@@ -11088,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>8015</v>
       </c>
@@ -11102,7 +11162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>8016</v>
       </c>
@@ -11116,7 +11176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>8017</v>
       </c>
@@ -11130,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>8018</v>
       </c>
@@ -11144,7 +11204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>8019</v>
       </c>
@@ -11158,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>8020</v>
       </c>
@@ -11172,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>8021</v>
       </c>
@@ -11186,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>8022</v>
       </c>
@@ -11200,7 +11260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>8023</v>
       </c>
@@ -11214,7 +11274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>8024</v>
       </c>
@@ -11228,7 +11288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>8025</v>
       </c>
@@ -11242,7 +11302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>8026</v>
       </c>
@@ -11256,7 +11316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>8027</v>
       </c>
@@ -11270,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>8028</v>
       </c>
@@ -11284,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>8029</v>
       </c>
@@ -11298,7 +11358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>8030</v>
       </c>
@@ -11312,7 +11372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>8031</v>
       </c>
@@ -11326,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>8032</v>
       </c>
@@ -11340,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>8033</v>
       </c>
@@ -11354,7 +11414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>8034</v>
       </c>
@@ -11368,7 +11428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>8035</v>
       </c>
@@ -11382,7 +11442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>8036</v>
       </c>
@@ -11396,7 +11456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>8037</v>
       </c>
@@ -11410,7 +11470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>8038</v>
       </c>
@@ -11424,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>8039</v>
       </c>
@@ -11438,7 +11498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>8040</v>
       </c>
@@ -11452,7 +11512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>8041</v>
       </c>
@@ -11466,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>8042</v>
       </c>
@@ -11480,7 +11540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>8043</v>
       </c>
@@ -11494,7 +11554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>8044</v>
       </c>
@@ -11508,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>8045</v>
       </c>
@@ -11522,7 +11582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>8046</v>
       </c>
@@ -11536,7 +11596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>8047</v>
       </c>
@@ -11550,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>8048</v>
       </c>
@@ -11564,7 +11624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>8049</v>
       </c>
@@ -11578,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>8050</v>
       </c>
@@ -11592,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>8051</v>
       </c>
@@ -11606,7 +11666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>8052</v>
       </c>
@@ -11620,7 +11680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>8053</v>
       </c>
@@ -11634,7 +11694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>8054</v>
       </c>
@@ -11648,7 +11708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>8055</v>
       </c>
@@ -11662,7 +11722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>8056</v>
       </c>
@@ -11676,7 +11736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>8057</v>
       </c>
@@ -11690,7 +11750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>8058</v>
       </c>
@@ -11704,7 +11764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>8059</v>
       </c>
@@ -11718,7 +11778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>8060</v>
       </c>
@@ -11732,7 +11792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>8061</v>
       </c>
@@ -11746,7 +11806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>8062</v>
       </c>
@@ -11760,7 +11820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>8063</v>
       </c>
@@ -11774,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>8064</v>
       </c>
@@ -11788,7 +11848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>8065</v>
       </c>
@@ -11802,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>8066</v>
       </c>
@@ -11816,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>8067</v>
       </c>
@@ -11830,7 +11890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>8068</v>
       </c>
@@ -11844,7 +11904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>8069</v>
       </c>
@@ -11858,7 +11918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>8070</v>
       </c>
@@ -11872,7 +11932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>8071</v>
       </c>
@@ -11886,7 +11946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>8072</v>
       </c>
@@ -11900,7 +11960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>8073</v>
       </c>
@@ -11914,7 +11974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>8074</v>
       </c>
@@ -11928,7 +11988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>8075</v>
       </c>
@@ -11942,7 +12002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>8076</v>
       </c>
@@ -11956,7 +12016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>8077</v>
       </c>
@@ -11970,7 +12030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>8078</v>
       </c>
@@ -11984,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>8079</v>
       </c>
@@ -11998,7 +12058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>8080</v>
       </c>
@@ -12012,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>8081</v>
       </c>
@@ -12026,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>8082</v>
       </c>
@@ -12040,7 +12100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>8083</v>
       </c>
@@ -12054,7 +12114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>8084</v>
       </c>
@@ -12068,7 +12128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>8085</v>
       </c>
@@ -12082,7 +12142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>8086</v>
       </c>
@@ -12096,7 +12156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>8087</v>
       </c>
@@ -12110,7 +12170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>8088</v>
       </c>
@@ -12124,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>8089</v>
       </c>
@@ -12138,7 +12198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>8090</v>
       </c>
@@ -12152,7 +12212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>8091</v>
       </c>
@@ -12166,7 +12226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>8092</v>
       </c>
@@ -12180,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>8093</v>
       </c>
@@ -12194,7 +12254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>8094</v>
       </c>
@@ -12208,7 +12268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>8095</v>
       </c>
@@ -12222,7 +12282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>8096</v>
       </c>
@@ -12236,7 +12296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>8097</v>
       </c>
@@ -12250,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>8098</v>
       </c>
@@ -12264,7 +12324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>8099</v>
       </c>
@@ -12278,7 +12338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>8100</v>
       </c>
@@ -12292,7 +12352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>8101</v>
       </c>
@@ -12306,7 +12366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>8102</v>
       </c>
@@ -12320,7 +12380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>8103</v>
       </c>
@@ -12334,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>8104</v>
       </c>
@@ -12348,7 +12408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>8105</v>
       </c>
@@ -12362,7 +12422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>8106</v>
       </c>
@@ -12376,7 +12436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>8107</v>
       </c>
@@ -12390,7 +12450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>8108</v>
       </c>
@@ -12404,7 +12464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>8109</v>
       </c>
@@ -12418,7 +12478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>8110</v>
       </c>
@@ -12432,7 +12492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>8111</v>
       </c>
@@ -12446,7 +12506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>8112</v>
       </c>
@@ -12460,7 +12520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>8113</v>
       </c>
@@ -12474,7 +12534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>8114</v>
       </c>
@@ -12488,7 +12548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>8115</v>
       </c>
@@ -12502,7 +12562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>8116</v>
       </c>
@@ -12516,7 +12576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>8117</v>
       </c>
@@ -12530,7 +12590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>8118</v>
       </c>
@@ -12544,7 +12604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>8119</v>
       </c>
@@ -12558,7 +12618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>8120</v>
       </c>
@@ -12572,7 +12632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>8121</v>
       </c>
@@ -12586,7 +12646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>8122</v>
       </c>
@@ -12600,7 +12660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>8123</v>
       </c>
@@ -12614,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>8124</v>
       </c>
@@ -12628,7 +12688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>8125</v>
       </c>
@@ -12642,7 +12702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>8126</v>
       </c>
@@ -12656,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>8127</v>
       </c>
@@ -12670,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>8128</v>
       </c>
@@ -12684,7 +12744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>8129</v>
       </c>
@@ -12698,7 +12758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>8130</v>
       </c>
@@ -12712,7 +12772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>8131</v>
       </c>
@@ -12726,7 +12786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>8132</v>
       </c>
@@ -12740,7 +12800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>8133</v>
       </c>
@@ -12754,7 +12814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>8134</v>
       </c>
@@ -12768,7 +12828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>8135</v>
       </c>
@@ -12782,7 +12842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>8136</v>
       </c>
@@ -12796,7 +12856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>8137</v>
       </c>
@@ -12810,7 +12870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>8138</v>
       </c>
@@ -12824,7 +12884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>8139</v>
       </c>
@@ -12838,7 +12898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>8140</v>
       </c>
@@ -12852,7 +12912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>8141</v>
       </c>
@@ -12866,7 +12926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>8142</v>
       </c>
@@ -12880,7 +12940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>8143</v>
       </c>
@@ -12894,7 +12954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>8144</v>
       </c>
@@ -12908,7 +12968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>8145</v>
       </c>
@@ -12922,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>8146</v>
       </c>
@@ -12936,7 +12996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>8147</v>
       </c>
@@ -12950,7 +13010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>8148</v>
       </c>
@@ -12964,7 +13024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>8149</v>
       </c>
@@ -12978,7 +13038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>8150</v>
       </c>
@@ -12992,7 +13052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>8151</v>
       </c>
@@ -13006,7 +13066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>8152</v>
       </c>
@@ -13020,7 +13080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>8153</v>
       </c>
@@ -13034,7 +13094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>8154</v>
       </c>
@@ -13048,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>8155</v>
       </c>
@@ -13062,7 +13122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>8156</v>
       </c>
@@ -13076,7 +13136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>8157</v>
       </c>
@@ -13090,7 +13150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>8158</v>
       </c>
@@ -13104,7 +13164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>8159</v>
       </c>
@@ -13118,7 +13178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>8160</v>
       </c>
@@ -13132,7 +13192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>8161</v>
       </c>
@@ -13146,7 +13206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>8162</v>
       </c>
@@ -13160,7 +13220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>8163</v>
       </c>
@@ -13174,7 +13234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>8164</v>
       </c>
@@ -13188,7 +13248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>8165</v>
       </c>
@@ -13202,7 +13262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>8166</v>
       </c>
@@ -13216,7 +13276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>8167</v>
       </c>
@@ -13230,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>8168</v>
       </c>
@@ -13244,7 +13304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>8169</v>
       </c>
@@ -13258,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>8170</v>
       </c>
@@ -13272,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>8171</v>
       </c>
@@ -13286,7 +13346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>8172</v>
       </c>
@@ -13300,7 +13360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>8173</v>
       </c>
@@ -13314,7 +13374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>8174</v>
       </c>
@@ -13328,7 +13388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>8175</v>
       </c>
@@ -13342,7 +13402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>8176</v>
       </c>
@@ -13356,7 +13416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>8177</v>
       </c>
@@ -13370,7 +13430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>8178</v>
       </c>
@@ -13384,7 +13444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>8179</v>
       </c>
@@ -13398,7 +13458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>8180</v>
       </c>
@@ -13412,7 +13472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>8181</v>
       </c>
@@ -13426,7 +13486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>8182</v>
       </c>
@@ -13440,7 +13500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>8183</v>
       </c>
@@ -13454,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>8184</v>
       </c>
@@ -13468,7 +13528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>8185</v>
       </c>
@@ -13482,7 +13542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>8186</v>
       </c>
@@ -13496,7 +13556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>8187</v>
       </c>
@@ -13510,7 +13570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>8188</v>
       </c>
@@ -13524,7 +13584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>8189</v>
       </c>
@@ -13538,7 +13598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>8190</v>
       </c>
@@ -13552,7 +13612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>8191</v>
       </c>
@@ -13566,7 +13626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>8192</v>
       </c>
@@ -13580,7 +13640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>8193</v>
       </c>
@@ -13594,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>8194</v>
       </c>
@@ -13608,7 +13668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>8195</v>
       </c>
@@ -13622,7 +13682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>8196</v>
       </c>
@@ -13636,7 +13696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>8197</v>
       </c>
@@ -13650,7 +13710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>8198</v>
       </c>
@@ -13664,7 +13724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>8199</v>
       </c>
@@ -13678,7 +13738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>8200</v>
       </c>
@@ -13692,7 +13752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>8201</v>
       </c>
@@ -13706,7 +13766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>8202</v>
       </c>
@@ -13720,7 +13780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>8203</v>
       </c>
@@ -13734,7 +13794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A706" s="1">
         <v>8204</v>
       </c>
@@ -13748,7 +13808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>8205</v>
       </c>
@@ -13762,7 +13822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>8206</v>
       </c>
@@ -13776,7 +13836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>8207</v>
       </c>
@@ -13790,7 +13850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>8208</v>
       </c>
@@ -13804,7 +13864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>8209</v>
       </c>
@@ -13818,7 +13878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>8210</v>
       </c>
@@ -13832,7 +13892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>8211</v>
       </c>
@@ -13846,7 +13906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714" s="1">
         <v>8212</v>
       </c>
@@ -13860,7 +13920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>8213</v>
       </c>
@@ -13874,7 +13934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>8214</v>
       </c>
@@ -13888,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A717" s="1">
         <v>8215</v>
       </c>
@@ -13902,7 +13962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A718" s="1">
         <v>8216</v>
       </c>
@@ -13916,7 +13976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>8217</v>
       </c>
@@ -13930,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>8218</v>
       </c>
@@ -13944,7 +14004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>8219</v>
       </c>
@@ -13958,7 +14018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>8220</v>
       </c>
@@ -13972,7 +14032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>8221</v>
       </c>
@@ -13986,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>8222</v>
       </c>
@@ -14000,7 +14060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>8223</v>
       </c>
@@ -14014,7 +14074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>8224</v>
       </c>
@@ -14028,7 +14088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A727" s="1">
         <v>8225</v>
       </c>
@@ -14042,7 +14102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>8226</v>
       </c>
@@ -14056,7 +14116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>8227</v>
       </c>
@@ -14070,7 +14130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>8228</v>
       </c>
@@ -14084,7 +14144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>8229</v>
       </c>
@@ -14098,7 +14158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>8230</v>
       </c>
@@ -14112,7 +14172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>8231</v>
       </c>
@@ -14126,7 +14186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>8232</v>
       </c>
@@ -14140,7 +14200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>8233</v>
       </c>
@@ -14154,7 +14214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>8234</v>
       </c>
@@ -14168,7 +14228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>8235</v>
       </c>
@@ -14182,7 +14242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>8236</v>
       </c>
@@ -14196,7 +14256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>8237</v>
       </c>
@@ -14210,7 +14270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>8238</v>
       </c>
@@ -14224,7 +14284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>8239</v>
       </c>
@@ -14238,7 +14298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>8240</v>
       </c>
@@ -14252,7 +14312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>8241</v>
       </c>
@@ -14266,7 +14326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>8242</v>
       </c>
@@ -14280,7 +14340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>8243</v>
       </c>
@@ -14294,7 +14354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>8244</v>
       </c>
@@ -14308,7 +14368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>8245</v>
       </c>
@@ -14322,7 +14382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>8246</v>
       </c>
@@ -14336,7 +14396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>8247</v>
       </c>
@@ -14350,7 +14410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>8248</v>
       </c>
@@ -14364,7 +14424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>8249</v>
       </c>
@@ -14378,7 +14438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>8250</v>
       </c>
@@ -14392,7 +14452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>8251</v>
       </c>
@@ -14406,7 +14466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>8252</v>
       </c>
@@ -14420,7 +14480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>8253</v>
       </c>
@@ -14434,7 +14494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>8254</v>
       </c>
@@ -14448,7 +14508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>8255</v>
       </c>
@@ -14462,7 +14522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A758" s="1">
         <v>8256</v>
       </c>
@@ -14476,7 +14536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A759" s="1">
         <v>8257</v>
       </c>
@@ -14490,7 +14550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>8258</v>
       </c>
@@ -14504,7 +14564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>8259</v>
       </c>
@@ -14518,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>8260</v>
       </c>
@@ -14532,7 +14592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>8261</v>
       </c>
@@ -14546,7 +14606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>8262</v>
       </c>
@@ -14560,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>8263</v>
       </c>
@@ -14574,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>8264</v>
       </c>
@@ -14588,7 +14648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>8265</v>
       </c>
@@ -14602,7 +14662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>8266</v>
       </c>
@@ -14616,7 +14676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>8267</v>
       </c>
@@ -14630,7 +14690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>8268</v>
       </c>
@@ -14644,7 +14704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>8269</v>
       </c>
@@ -14658,7 +14718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>8270</v>
       </c>
@@ -14672,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>8271</v>
       </c>
@@ -14686,7 +14746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>8272</v>
       </c>
@@ -14700,7 +14760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>8273</v>
       </c>
@@ -14714,7 +14774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>8274</v>
       </c>
@@ -14728,7 +14788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>8275</v>
       </c>
@@ -14742,7 +14802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>8276</v>
       </c>
@@ -14756,7 +14816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>8277</v>
       </c>
@@ -14770,7 +14830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>8278</v>
       </c>
@@ -14784,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>8279</v>
       </c>
@@ -14798,7 +14858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>8280</v>
       </c>
@@ -14812,7 +14872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>8281</v>
       </c>
@@ -14826,7 +14886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>8282</v>
       </c>
@@ -14840,7 +14900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>8283</v>
       </c>
@@ -14854,7 +14914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>8284</v>
       </c>
@@ -14868,7 +14928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>8285</v>
       </c>
@@ -14882,7 +14942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>8286</v>
       </c>
@@ -14896,7 +14956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A789" s="1">
         <v>8287</v>
       </c>
@@ -14910,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A790" s="1">
         <v>8288</v>
       </c>
@@ -14924,7 +14984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>8289</v>
       </c>
@@ -14938,7 +14998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>8290</v>
       </c>
@@ -14952,7 +15012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>8291</v>
       </c>
@@ -14966,7 +15026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>8292</v>
       </c>
@@ -14980,7 +15040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>8293</v>
       </c>
@@ -14994,7 +15054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>8294</v>
       </c>
@@ -15008,7 +15068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>8295</v>
       </c>
@@ -15022,7 +15082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>8296</v>
       </c>
@@ -15036,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>8297</v>
       </c>
@@ -15050,7 +15110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>8298</v>
       </c>
@@ -15064,7 +15124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>8299</v>
       </c>
@@ -15078,7 +15138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="802" spans="1:4">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>8300</v>
       </c>
@@ -15092,7 +15152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>8301</v>
       </c>
@@ -15106,7 +15166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="804" spans="1:4">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>8302</v>
       </c>
@@ -15120,7 +15180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="805" spans="1:4">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>8303</v>
       </c>
@@ -15134,7 +15194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:4">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>8304</v>
       </c>
@@ -15148,7 +15208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>8305</v>
       </c>
@@ -15162,7 +15222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:4">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A808" s="1">
         <v>8306</v>
       </c>
@@ -15176,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A809" s="1">
         <v>8307</v>
       </c>
@@ -15190,7 +15250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="810" spans="1:4">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A810" s="1">
         <v>8308</v>
       </c>
@@ -15204,7 +15264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A811" s="1">
         <v>8309</v>
       </c>
@@ -15218,7 +15278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A812" s="1">
         <v>8310</v>
       </c>
@@ -15232,7 +15292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:4">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A813" s="1">
         <v>8311</v>
       </c>
@@ -15246,7 +15306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="814" spans="1:4">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A814" s="1">
         <v>8312</v>
       </c>
@@ -15260,7 +15320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="815" spans="1:4">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A815" s="1">
         <v>8313</v>
       </c>
@@ -15274,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:4">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A816" s="1">
         <v>8314</v>
       </c>
@@ -15288,7 +15348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:4">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A817" s="1">
         <v>8315</v>
       </c>
@@ -15302,7 +15362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A818" s="1">
         <v>8316</v>
       </c>
@@ -15316,7 +15376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:4">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A819" s="1">
         <v>8317</v>
       </c>
@@ -15330,7 +15390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A820" s="1">
         <v>8318</v>
       </c>
@@ -15344,7 +15404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A821" s="1">
         <v>8319</v>
       </c>
@@ -15358,7 +15418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="1:4">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A822" s="1">
         <v>8320</v>
       </c>
@@ -15372,7 +15432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="823" spans="1:4">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A823" s="1">
         <v>8321</v>
       </c>
@@ -15386,7 +15446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:4">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A824" s="1">
         <v>8322</v>
       </c>
@@ -15400,7 +15460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A825" s="1">
         <v>8323</v>
       </c>
@@ -15414,7 +15474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:4">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A826" s="1">
         <v>8324</v>
       </c>
@@ -15428,7 +15488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:4">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A827" s="1">
         <v>8325</v>
       </c>
@@ -15442,7 +15502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A828" s="1">
         <v>8326</v>
       </c>
@@ -15456,7 +15516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="829" spans="1:4">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A829" s="1">
         <v>8327</v>
       </c>
@@ -15470,7 +15530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:4">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A830" s="1">
         <v>8328</v>
       </c>
@@ -15484,7 +15544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:4">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A831" s="1">
         <v>8329</v>
       </c>
@@ -15498,7 +15558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="832" spans="1:4">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A832" s="1">
         <v>8330</v>
       </c>
@@ -15512,7 +15572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A833" s="1">
         <v>8331</v>
       </c>
@@ -15526,7 +15586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A834" s="1">
         <v>8332</v>
       </c>
@@ -15540,7 +15600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A835" s="1">
         <v>8333</v>
       </c>
@@ -15554,7 +15614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="836" spans="1:4">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A836" s="1">
         <v>8334</v>
       </c>
@@ -15568,7 +15628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A837" s="1">
         <v>8335</v>
       </c>
@@ -15582,7 +15642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="838" spans="1:4">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A838" s="1">
         <v>8336</v>
       </c>
@@ -15596,7 +15656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:4">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A839" s="1">
         <v>8337</v>
       </c>
@@ -15610,7 +15670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A840" s="1">
         <v>8338</v>
       </c>
@@ -15624,7 +15684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A841" s="1">
         <v>8339</v>
       </c>
@@ -15638,7 +15698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A842" s="1">
         <v>8340</v>
       </c>
@@ -15652,7 +15712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A843" s="1">
         <v>8341</v>
       </c>
@@ -15666,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:4">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A844" s="1">
         <v>8342</v>
       </c>
@@ -15680,7 +15740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:4">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A845" s="1">
         <v>8343</v>
       </c>
@@ -15694,7 +15754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:4">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A846" s="1">
         <v>8344</v>
       </c>
@@ -15708,7 +15768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:4">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A847" s="1">
         <v>8345</v>
       </c>
@@ -15722,7 +15782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A848" s="1">
         <v>8346</v>
       </c>
@@ -15736,7 +15796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="849" spans="1:4">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A849" s="1">
         <v>8347</v>
       </c>
@@ -15750,7 +15810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="850" spans="1:4">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A850" s="1">
         <v>8348</v>
       </c>
@@ -15764,7 +15824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:4">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A851" s="1">
         <v>8349</v>
       </c>
@@ -15778,7 +15838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:4">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A852" s="1">
         <v>8350</v>
       </c>
@@ -15792,7 +15852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A853" s="1">
         <v>8351</v>
       </c>
@@ -15806,7 +15866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:4">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A854" s="1">
         <v>8352</v>
       </c>
@@ -15820,7 +15880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="855" spans="1:4">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A855" s="1">
         <v>8353</v>
       </c>
@@ -15834,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:4">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A856" s="1">
         <v>8354</v>
       </c>
@@ -15848,7 +15908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="857" spans="1:4">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A857" s="1">
         <v>8355</v>
       </c>
@@ -15862,7 +15922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:4">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A858" s="1">
         <v>8356</v>
       </c>
@@ -15876,7 +15936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:4">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A859" s="1">
         <v>8357</v>
       </c>
@@ -15890,7 +15950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="860" spans="1:4">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A860" s="1">
         <v>8358</v>
       </c>
@@ -15904,7 +15964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:4">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A861" s="1">
         <v>8359</v>
       </c>
@@ -15918,7 +15978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="862" spans="1:4">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A862" s="1">
         <v>8360</v>
       </c>
@@ -15932,7 +15992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="863" spans="1:4">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A863" s="1">
         <v>8361</v>
       </c>
@@ -15946,7 +16006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:4">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A864" s="1">
         <v>8362</v>
       </c>
@@ -15960,7 +16020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A865" s="1">
         <v>8363</v>
       </c>
@@ -15974,7 +16034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:4">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A866" s="1">
         <v>8364</v>
       </c>
@@ -15988,7 +16048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="867" spans="1:4">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A867" s="1">
         <v>8365</v>
       </c>
@@ -16002,7 +16062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="868" spans="1:4">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A868" s="1">
         <v>8366</v>
       </c>
@@ -16016,7 +16076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A869" s="1">
         <v>8367</v>
       </c>
@@ -16030,7 +16090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A870" s="1">
         <v>8368</v>
       </c>
@@ -16044,7 +16104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="871" spans="1:4">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A871" s="1">
         <v>8369</v>
       </c>
@@ -16058,7 +16118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:4">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A872" s="1">
         <v>8370</v>
       </c>
@@ -16072,7 +16132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="873" spans="1:4">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A873" s="1">
         <v>8371</v>
       </c>
@@ -16086,7 +16146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="874" spans="1:4">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A874" s="1">
         <v>8372</v>
       </c>
@@ -16100,7 +16160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="875" spans="1:4">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A875" s="1">
         <v>8373</v>
       </c>
@@ -16114,7 +16174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="876" spans="1:4">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A876" s="1">
         <v>8374</v>
       </c>
@@ -16128,7 +16188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="877" spans="1:4">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A877" s="1">
         <v>8375</v>
       </c>
@@ -16142,7 +16202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="878" spans="1:4">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A878" s="1">
         <v>8376</v>
       </c>
@@ -16156,7 +16216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="879" spans="1:4">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A879" s="1">
         <v>8377</v>
       </c>
@@ -16170,7 +16230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:4">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A880" s="1">
         <v>8378</v>
       </c>
@@ -16184,7 +16244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="881" spans="1:4">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A881" s="1">
         <v>8379</v>
       </c>
@@ -16198,7 +16258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="882" spans="1:4">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A882" s="1">
         <v>8380</v>
       </c>
@@ -16212,7 +16272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="883" spans="1:4">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A883" s="1">
         <v>8381</v>
       </c>
@@ -16226,7 +16286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:4">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A884" s="1">
         <v>8382</v>
       </c>
@@ -16240,7 +16300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A885" s="1">
         <v>8383</v>
       </c>
@@ -16254,7 +16314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="886" spans="1:4">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A886" s="1">
         <v>8384</v>
       </c>
@@ -16268,7 +16328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:4">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A887" s="1">
         <v>8385</v>
       </c>
@@ -16282,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:4">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A888" s="1">
         <v>8386</v>
       </c>
@@ -16296,7 +16356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:4">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A889" s="1">
         <v>8387</v>
       </c>
@@ -16310,7 +16370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A890" s="1">
         <v>8388</v>
       </c>
@@ -16324,7 +16384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:4">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A891" s="1">
         <v>8389</v>
       </c>
@@ -16338,7 +16398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="892" spans="1:4">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A892" s="1">
         <v>8390</v>
       </c>
@@ -16352,7 +16412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:4">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A893" s="1">
         <v>8391</v>
       </c>
@@ -16366,7 +16426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="894" spans="1:4">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A894" s="1">
         <v>8392</v>
       </c>
@@ -16380,7 +16440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="895" spans="1:4">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A895" s="1">
         <v>8393</v>
       </c>
@@ -16394,7 +16454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:4">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A896" s="1">
         <v>8394</v>
       </c>
@@ -16408,7 +16468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="897" spans="1:4">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A897" s="1">
         <v>8395</v>
       </c>
@@ -16422,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:4">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A898" s="1">
         <v>8396</v>
       </c>
@@ -16436,7 +16496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="899" spans="1:4">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A899" s="1">
         <v>8397</v>
       </c>
@@ -16450,7 +16510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="900" spans="1:4">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A900" s="1">
         <v>8398</v>
       </c>
@@ -16464,7 +16524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="901" spans="1:4">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A901" s="1">
         <v>8399</v>
       </c>
@@ -16478,7 +16538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:4">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A902" s="1">
         <v>8400</v>
       </c>
@@ -16492,7 +16552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="903" spans="1:4">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A903" s="1">
         <v>8401</v>
       </c>
@@ -16506,7 +16566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:4">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A904" s="1">
         <v>8402</v>
       </c>
@@ -16520,7 +16580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="905" spans="1:4">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A905" s="1">
         <v>8403</v>
       </c>
@@ -16534,7 +16594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A906" s="1">
         <v>8404</v>
       </c>
@@ -16548,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A907" s="1">
         <v>8405</v>
       </c>
@@ -16562,7 +16622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A908" s="1">
         <v>8406</v>
       </c>
@@ -16576,7 +16636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="909" spans="1:4">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A909" s="1">
         <v>8407</v>
       </c>
@@ -16590,7 +16650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="910" spans="1:4">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A910" s="1">
         <v>8408</v>
       </c>
@@ -16604,7 +16664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="911" spans="1:4">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A911" s="1">
         <v>8409</v>
       </c>
@@ -16618,7 +16678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="912" spans="1:4">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A912" s="1">
         <v>8410</v>
       </c>
@@ -16632,7 +16692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:4">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A913" s="1">
         <v>8411</v>
       </c>
@@ -16646,7 +16706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="914" spans="1:4">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A914" s="1">
         <v>8412</v>
       </c>
@@ -16660,7 +16720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="915" spans="1:4">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A915" s="1">
         <v>8413</v>
       </c>
@@ -16674,7 +16734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="916" spans="1:4">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A916" s="1">
         <v>8414</v>
       </c>
@@ -16688,7 +16748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:4">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A917" s="1">
         <v>8415</v>
       </c>
@@ -16702,7 +16762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="918" spans="1:4">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A918" s="1">
         <v>8416</v>
       </c>
@@ -16716,7 +16776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:4">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A919" s="1">
         <v>8417</v>
       </c>
@@ -16730,7 +16790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="920" spans="1:4">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A920" s="1">
         <v>8418</v>
       </c>
@@ -16744,7 +16804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:4">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A921" s="1">
         <v>8419</v>
       </c>
@@ -16758,7 +16818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:4">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A922" s="1">
         <v>8420</v>
       </c>
@@ -16772,7 +16832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:4">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A923" s="1">
         <v>8421</v>
       </c>
@@ -16786,7 +16846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="924" spans="1:4">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A924" s="1">
         <v>8422</v>
       </c>
@@ -16800,7 +16860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="925" spans="1:4">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A925" s="1">
         <v>8423</v>
       </c>
@@ -16814,7 +16874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:4">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A926" s="1">
         <v>8424</v>
       </c>
@@ -16828,7 +16888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="927" spans="1:4">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A927" s="1">
         <v>8425</v>
       </c>
@@ -16842,7 +16902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:4">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A928" s="1">
         <v>8426</v>
       </c>
@@ -16856,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A929" s="1">
         <v>8427</v>
       </c>
@@ -16870,7 +16930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:4">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A930" s="1">
         <v>8428</v>
       </c>
@@ -16884,7 +16944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:4">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A931" s="1">
         <v>8429</v>
       </c>
@@ -16898,7 +16958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="932" spans="1:4">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A932" s="1">
         <v>8430</v>
       </c>
@@ -16912,7 +16972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:4">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A933" s="1">
         <v>8431</v>
       </c>
@@ -16926,7 +16986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="934" spans="1:4">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A934" s="1">
         <v>8432</v>
       </c>
@@ -16940,7 +17000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="935" spans="1:4">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A935" s="1">
         <v>8433</v>
       </c>
@@ -16954,7 +17014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:4">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A936" s="1">
         <v>8434</v>
       </c>
@@ -16968,7 +17028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:4">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A937" s="1">
         <v>8435</v>
       </c>
@@ -16982,7 +17042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:4">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A938" s="1">
         <v>8436</v>
       </c>
@@ -16996,7 +17056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:4">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A939" s="1">
         <v>8437</v>
       </c>
@@ -17010,7 +17070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:4">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A940" s="1">
         <v>8438</v>
       </c>
@@ -17024,7 +17084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="941" spans="1:4">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A941" s="1">
         <v>8439</v>
       </c>
@@ -17038,7 +17098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:4">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A942" s="1">
         <v>8440</v>
       </c>
@@ -17052,7 +17112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="943" spans="1:4">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A943" s="1">
         <v>8441</v>
       </c>
@@ -17066,7 +17126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="944" spans="1:4">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A944" s="1">
         <v>8442</v>
       </c>
@@ -17080,7 +17140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:4">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A945" s="1">
         <v>8443</v>
       </c>
@@ -17094,7 +17154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="946" spans="1:4">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A946" s="1">
         <v>8444</v>
       </c>
@@ -17108,7 +17168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:4">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A947" s="1">
         <v>8445</v>
       </c>
@@ -17122,7 +17182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="948" spans="1:4">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A948" s="1">
         <v>8446</v>
       </c>
@@ -17136,7 +17196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:4">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A949" s="1">
         <v>8447</v>
       </c>
@@ -17150,7 +17210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="950" spans="1:4">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A950" s="1">
         <v>8448</v>
       </c>
@@ -17164,7 +17224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="951" spans="1:4">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A951" s="1">
         <v>8449</v>
       </c>
@@ -17178,7 +17238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="952" spans="1:4">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A952" s="1">
         <v>8450</v>
       </c>
@@ -17192,7 +17252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="953" spans="1:4">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A953" s="1">
         <v>8451</v>
       </c>
@@ -17206,7 +17266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="954" spans="1:4">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A954" s="1">
         <v>8452</v>
       </c>
@@ -17220,7 +17280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="955" spans="1:4">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A955" s="1">
         <v>8453</v>
       </c>
@@ -17234,7 +17294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:4">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A956" s="1">
         <v>8454</v>
       </c>
@@ -17248,7 +17308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="957" spans="1:4">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A957" s="1">
         <v>8455</v>
       </c>
@@ -17262,7 +17322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="958" spans="1:4">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A958" s="1">
         <v>8456</v>
       </c>
@@ -17276,7 +17336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="959" spans="1:4">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A959" s="1">
         <v>8457</v>
       </c>
@@ -17290,7 +17350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="960" spans="1:4">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A960" s="1">
         <v>8458</v>
       </c>
@@ -17304,7 +17364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:4">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A961" s="1">
         <v>8459</v>
       </c>
@@ -17318,7 +17378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="1:4">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A962" s="1">
         <v>8460</v>
       </c>
@@ -17332,7 +17392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:4">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A963" s="1">
         <v>8461</v>
       </c>
@@ -17346,7 +17406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="964" spans="1:4">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A964" s="1">
         <v>8462</v>
       </c>
@@ -17360,7 +17420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="965" spans="1:4">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A965" s="1">
         <v>8463</v>
       </c>
@@ -17374,7 +17434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="966" spans="1:4">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A966" s="1">
         <v>8464</v>
       </c>
@@ -17388,7 +17448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="967" spans="1:4">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A967" s="1">
         <v>8465</v>
       </c>
@@ -17402,7 +17462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:4">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A968" s="1">
         <v>8466</v>
       </c>
@@ -17416,7 +17476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:4">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A969" s="1">
         <v>8467</v>
       </c>
@@ -17430,7 +17490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="970" spans="1:4">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A970" s="1">
         <v>8468</v>
       </c>
@@ -17444,7 +17504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="971" spans="1:4">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A971" s="1">
         <v>8469</v>
       </c>
@@ -17458,7 +17518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:4">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A972" s="1">
         <v>8470</v>
       </c>
@@ -17472,7 +17532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:4">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A973" s="1">
         <v>8471</v>
       </c>
@@ -17486,7 +17546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:4">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A974" s="1">
         <v>8472</v>
       </c>
@@ -17500,7 +17560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="975" spans="1:4">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A975" s="1">
         <v>8473</v>
       </c>
@@ -17514,7 +17574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:4">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A976" s="1">
         <v>8474</v>
       </c>
@@ -17528,7 +17588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:4">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A977" s="1">
         <v>8475</v>
       </c>
@@ -17542,7 +17602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:4">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A978" s="1">
         <v>8476</v>
       </c>
@@ -17556,7 +17616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="979" spans="1:4">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A979" s="1">
         <v>8477</v>
       </c>
@@ -17570,7 +17630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:4">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A980" s="1">
         <v>8478</v>
       </c>
@@ -17584,7 +17644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:4">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A981" s="1">
         <v>8479</v>
       </c>
@@ -17598,7 +17658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="982" spans="1:4">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A982" s="1">
         <v>8480</v>
       </c>
@@ -17612,7 +17672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:4">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A983" s="1">
         <v>8481</v>
       </c>
@@ -17626,7 +17686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="984" spans="1:4">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A984" s="1">
         <v>8482</v>
       </c>
@@ -17640,7 +17700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:4">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A985" s="1">
         <v>8483</v>
       </c>
@@ -17654,7 +17714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="986" spans="1:4">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A986" s="1">
         <v>8484</v>
       </c>
@@ -17668,7 +17728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:4">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A987" s="1">
         <v>8485</v>
       </c>
@@ -17682,7 +17742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="988" spans="1:4">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A988" s="1">
         <v>8486</v>
       </c>
@@ -17696,7 +17756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:4">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A989" s="1">
         <v>8487</v>
       </c>
@@ -17710,7 +17770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="990" spans="1:4">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A990" s="1">
         <v>8488</v>
       </c>
@@ -17724,7 +17784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="991" spans="1:4">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A991" s="1">
         <v>8489</v>
       </c>
@@ -17738,7 +17798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="992" spans="1:4">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A992" s="1">
         <v>8490</v>
       </c>
@@ -17752,7 +17812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:4">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A993" s="1">
         <v>8491</v>
       </c>
@@ -17766,7 +17826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="994" spans="1:4">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A994" s="1">
         <v>8492</v>
       </c>
@@ -17780,7 +17840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="995" spans="1:4">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A995" s="1">
         <v>8493</v>
       </c>
@@ -17794,7 +17854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="996" spans="1:4">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A996" s="1">
         <v>8494</v>
       </c>
@@ -17808,7 +17868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="997" spans="1:4">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A997" s="1">
         <v>8495</v>
       </c>
@@ -17822,7 +17882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:4">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A998" s="1">
         <v>8496</v>
       </c>
@@ -17836,7 +17896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:4">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A999" s="1">
         <v>8497</v>
       </c>
@@ -17850,7 +17910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1000" spans="1:4">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1000" s="1">
         <v>8498</v>
       </c>
@@ -17864,7 +17924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1001" spans="1:4">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1001" s="1">
         <v>8499</v>
       </c>
